--- a/docs/dataset.xlsx
+++ b/docs/dataset.xlsx
@@ -16,12 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Test</t>
   </si>
   <si>
     <t>Train</t>
+  </si>
+  <si>
+    <t>Tropical Depression</t>
+  </si>
+  <si>
+    <t>Tropical Storm</t>
+  </si>
+  <si>
+    <t>Serve Tropical Storm</t>
+  </si>
+  <si>
+    <t>Typhoon</t>
+  </si>
+  <si>
+    <t>Extra TC</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Not Correct</t>
   </si>
 </sst>
 </file>
@@ -239,25 +260,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="121909632"/>
-        <c:axId val="121911552"/>
+        <c:axId val="98858880"/>
+        <c:axId val="98860416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121909632"/>
+        <c:axId val="98858880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121911552"/>
+        <c:crossAx val="98860416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121911552"/>
+        <c:axId val="98860416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -265,7 +286,205 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121909632"/>
+        <c:crossAx val="98858880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HOG</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$22:$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Tropical Depression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tropical Storm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Serve Tropical Storm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Typhoon</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Extra TC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Correct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$22:$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Tropical Depression</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tropical Storm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Serve Tropical Storm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Typhoon</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Extra TC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="38038528"/>
+        <c:axId val="38306560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38038528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38306560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38306560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38038528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -311,6 +530,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -604,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -706,6 +955,63 @@
       </c>
       <c r="C9">
         <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9">
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9">
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>121</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9">
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>42</v>
+      </c>
+      <c r="G24">
+        <v>36</v>
+      </c>
+      <c r="H24">
+        <v>57</v>
+      </c>
+      <c r="I24">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/dataset.xlsx
+++ b/docs/dataset.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="645" windowWidth="28275" windowHeight="12030"/>
+    <workbookView xWindow="480" yWindow="645" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Test</t>
   </si>
@@ -44,12 +44,18 @@
   <si>
     <t>Not Correct</t>
   </si>
+  <si>
+    <t>64x64</t>
+  </si>
+  <si>
+    <t>32x32</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,26 +84,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -112,6 +136,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$9</c:f>
@@ -193,6 +218,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$9</c:f>
@@ -260,33 +286,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="98858880"/>
-        <c:axId val="98860416"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="83644416"/>
+        <c:axId val="83645952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98858880"/>
+        <c:axId val="83644416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98860416"/>
+        <c:crossAx val="83645952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98860416"/>
+        <c:axId val="83645952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98858880"/>
+        <c:crossAx val="83644416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -294,8 +336,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -307,184 +352,153 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>HOG</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$23</c:f>
+              <c:f>Sheet1!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Correct</c:v>
+                  <c:v>64x64</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$E$22:$I$22</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Tropical Depression</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tropical Storm</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Serve Tropical Storm</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Typhoon</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Extra TC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$23:$I$23</c:f>
+              <c:f>Sheet1!$E$25:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>6.9767441860465116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>20.754716981132077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>5.2631578947368416</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>121</c:v>
+                  <c:v>67.977528089887642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$24</c:f>
+              <c:f>Sheet1!$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Not Correct</c:v>
+                  <c:v>32x32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$E$22:$I$22</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Tropical Depression</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Tropical Storm</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Serve Tropical Storm</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Typhoon</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Extra TC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$24:$I$24</c:f>
+              <c:f>Sheet1!$E$29:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>18.604651162790699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>15.09433962264151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>5.4054054054054053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>73.033707865168537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="38038528"/>
-        <c:axId val="38306560"/>
-      </c:barChart>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="43429888"/>
+        <c:axId val="43431424"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="38038528"/>
+        <c:axId val="43429888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38306560"/>
+        <c:crossAx val="43431424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38306560"/>
+        <c:axId val="43431424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38038528"/>
+        <c:crossAx val="43429888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -492,8 +506,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -537,20 +554,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -643,6 +660,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -677,6 +695,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -852,16 +871,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -869,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -880,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>43</v>
       </c>
@@ -891,7 +910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53</v>
       </c>
@@ -902,7 +921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>38</v>
       </c>
@@ -913,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>179</v>
       </c>
@@ -924,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40</v>
       </c>
@@ -935,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -946,7 +965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -957,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="4:9">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>2</v>
       </c>
@@ -974,7 +993,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="4:9">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="4:9">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>8</v>
       </c>
@@ -1013,6 +1035,111 @@
       <c r="I24">
         <v>31</v>
       </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f>E23/(E23+E24) * 100</f>
+        <v>6.9767441860465116</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25:I25" si="0">F23/(F23+F24) * 100</f>
+        <v>20.754716981132077</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>67.977528089887642</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>130</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>45</v>
+      </c>
+      <c r="G28">
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <v>48</v>
+      </c>
+      <c r="I28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f>E27/(E27+E28) * 100</f>
+        <v>18.604651162790699</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:I29" si="1">F27/(F27+F28) * 100</f>
+        <v>15.09433962264151</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>5.4054054054054053</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>73.033707865168537</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1022,24 +1149,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
